--- a/openpy_fx_tools_dss/Examples/13Bus/xlsx_files/BBDD_DSS_13BusIEEE.xlsx
+++ b/openpy_fx_tools_dss/Examples/13Bus/xlsx_files/BBDD_DSS_13BusIEEE.xlsx
@@ -4385,7 +4385,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[0 |1.87639338887875E-310 2.25607960651843E-308 |9.80112381664057E-306 0 9.80100073884083E-306]</t>
+          <t>[0 |1.87639338887875E-310 2.25607960651843E-308 |9.2591692861569E-306 0 9.25904161323045E-306]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
